--- a/Hotelbooking.xlsx
+++ b/Hotelbooking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2438047_cognizant_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2438047_cognizant_com/Documents/Desktop/untitled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3E92E6-C284-4399-A65E-D383E013CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{6A3E92E6-C284-4399-A65E-D383E013CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BB41CD-3BE3-47E2-B139-B3ACFE2B0B37}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3110" windowWidth="14400" windowHeight="8170" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -524,10 +524,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1624,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1774,6 +1770,11 @@
       </c>
       <c r="J4" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Hotelbooking.xlsx
+++ b/Hotelbooking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2438047_cognizant_com/Documents/Desktop/untitled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{6A3E92E6-C284-4399-A65E-D383E013CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BB41CD-3BE3-47E2-B139-B3ACFE2B0B37}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6A3E92E6-C284-4399-A65E-D383E013CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8E1EE61-02E0-4F9A-B475-29485C93B8CA}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="3110" windowWidth="14400" windowHeight="8170" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
   <si>
     <t>Note</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>Selecting ‘Delhi’ displays hotel details for ‘Calcutta’ instead of the intended city.</t>
+  </si>
+  <si>
+    <t>DEF04</t>
   </si>
 </sst>
 </file>
@@ -1776,6 +1779,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
